--- a/Logs/transport_rates_log.xlsx
+++ b/Logs/transport_rates_log.xlsx
@@ -1,126 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Logs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Success Rate</t>
-  </si>
-  <si>
-    <t>LTL</t>
-  </si>
-  <si>
-    <t>FTL</t>
-  </si>
-  <si>
-    <t>FTL53</t>
-  </si>
-  <si>
-    <t>Drayage</t>
-  </si>
-  <si>
-    <t>Quoted Result</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>2025-09-19 08:12:13</t>
-  </si>
-  <si>
-    <t>2025-09-19 08:19:45</t>
-  </si>
-  <si>
-    <t>2025-09-19 11:30:20</t>
-  </si>
-  <si>
-    <t>07201, Elizabeth, New Jersey, NJ, United States</t>
-  </si>
-  <si>
-    <t>583229, Koppal, Karnataka, KA, India</t>
-  </si>
-  <si>
-    <t>21901, North East, Maryland, MD, United States</t>
-  </si>
-  <si>
-    <t>33032, Homestead, Florida, FL, United States</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 639.99, 'Carrier Name': 'Estes Express', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '19-09-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'LTL', 'Rate': 1053.58, 'Carrier Name': 'Frontline Freight', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '19-09-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 705.0, 'Carrier Name': '', 'Service Provider': 'JB.Hunt', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '19-09-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL', 'Rate': 5905.665, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '19-09-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL53', 'Rate': 645.0, 'Carrier Name': '', 'Service Provider': 'NTG', 'Source': 'No API STATIC DATA', 'Date': '28-08-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL53', 'Rate': 0, 'Carrier Name': 'Jb Hunt API Failed :No valid rates returned', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '19-09-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'FTL53', 'Rate': 5905.665, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '19-09-2025'}</t>
-  </si>
-  <si>
-    <t>{'Rate Type': 'N/A', 'Rate': 0.0, 'Carrier Name': '', 'Service Provider': '', 'Source': '', 'Date': ''}</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,16 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,118 +433,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Origin</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Destination</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DataType</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Totals_Weight</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Totals_VolumeCBM</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CargoDetails</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Toggles</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LTL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>FTL53</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Drayage</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Errors</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-09-23 10:58:43</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07201, Elizabeth, New Jersey, NJ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18101, Allentown, Pennsylvania, PA, United States</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CargoDetails</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[{'package_type': 'Loose Cartons', 'qty': 100, 'weight': 10.0, 'L': 48.0, 'W': 40.0, 'H': 72.0}]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{'FBA': True, 'LiftgateRequired': False, 'ResidentialDelivery': False}</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[{'Rate Type': 'LTL', 'Rate': 570.42, 'Carrier Name': 'Estes Express Lines VL', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '23-09-2025'}, {'Rate Type': 'LTL', 'Rate': 391.95, 'Carrier Name': 'Estes Express', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '23-09-2025'}]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[{'Rate Type': 'FTL', 'Rate': 866.8050000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '23-09-2025'}]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[{'Rate Type': 'FTL53', 'Rate': 866.8050000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '23-09-2025'}]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{'Rate Type': 'Drayage', 'Rate': 866.8050000000001, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '23-09-2025'}</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-09-23 12:04:22</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07201, Elizabeth, New Jersey, NJ, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>60007, Elk Grove Village, Illinois, IL, United States</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CargoDetails</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>750</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[{'package_type': 'Pallets', 'qty': 5, 'weight': 150.0, 'L': 100.0, 'W': 80.0, 'H': 120.0}]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{'FBA': False, 'LiftgateRequired': False, 'ResidentialDelivery': False}</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{'Rate Type': 'FTL', 'Rate': 2029.59, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '23-09-2025'}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[{'Rate Type': 'FTL53', 'Rate': 2029.59, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '23-09-2025'}]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>{'Rate Type': 'Drayage', 'Rate': 2029.59, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '23-09-2025'}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>❌ Error fetching LTL rate: local variable 'eaccessorialslist' referenced before assignment</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Logs/transport_rates_log.xlsx
+++ b/Logs/transport_rates_log.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +634,65 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-09-24 07:50:57</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07201, Elizabeth, New Jersey, NJ, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>60007, Elk Grove Village, Illinois, IL, United States</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CargoDetails</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>750</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[{'package_type': 'Loose Cartons', 'qty': 5, 'weight': 150.0, 'L': 100.0, 'W': 80.0, 'H': 120.0}]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{'FBA': True, 'LiftgateRequired': False, 'ResidentialDelivery': False}</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[{'Rate Type': 'LTL', 'Rate': 525.18, 'Carrier Name': 'Estes Express Lines', 'Service Provider': 'HeyPrimo', 'Source': 'API', 'Date': '24-09-2025'}, {'Rate Type': 'LTL', 'Rate': 543.59, 'Carrier Name': 'Estes Express', 'Service Provider': 'Ex-Freight', 'Source': 'API', 'Date': '24-09-2025'}]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{'Rate Type': 'FTL', 'Rate': 1996.605, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '24-09-2025'}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[{'Rate Type': 'FTL53', 'Rate': 1996.605, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '24-09-2025'}]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{'Rate Type': 'Drayage', 'Rate': 1996.605, 'Carrier Name': 'JBHZ', 'Service Provider': 'J.B. Hunt', 'Source': 'API', 'Date': '24-09-2025'}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
